--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -3673,7 +3673,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3723,7 +3723,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4064,7 +4064,7 @@
     <col min="23" max="23" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>3.330730461</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>3.330730461</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>3.330730461</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>3.330730461</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>3.330730461</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>3.330730461</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>3.330730461</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>3.330730461</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>3.330730461</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>3.330730461</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>3.330730461</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>3.330730461</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21.75">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>3.330730461</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21.75">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>3.330730461</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21.75">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>3.330730461</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21.75">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>3.330730461</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21.75">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>3.330730461</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21.75">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>3.330730461</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21.75">
       <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>3.330730461</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21.75">
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>3.330730461</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21.75">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
